--- a/jdk数据结构分析.xlsx
+++ b/jdk数据结构分析.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labvi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\java_web\java-basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43BFF65-BE71-4F23-96EC-8D1A8B6E5F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD806E8F-B5AA-4763-8CE1-CBE55103AF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,30 @@
   </si>
   <si>
     <t>构造函数接收一个Boolean参数,true时按元素最后访问时间排序,为false按插入顺序排序,默认为false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedHashSet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,10 +214,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -517,7 +541,7 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -543,7 +567,7 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -567,7 +591,7 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -580,7 +604,7 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="1"/>
@@ -591,7 +615,7 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -607,10 +631,10 @@
       <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="1"/>
@@ -619,11 +643,11 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="1"/>
@@ -637,7 +661,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -653,10 +677,12 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -669,8 +695,10 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -683,8 +711,10 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -697,7 +727,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -711,7 +741,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -725,10 +755,12 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -741,8 +773,10 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -755,8 +789,10 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>

--- a/jdk数据结构分析.xlsx
+++ b/jdk数据结构分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\java_web\java-basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD806E8F-B5AA-4763-8CE1-CBE55103AF14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C040745-DC7F-4487-909D-481540080317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="876" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>LinkedHashSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于HashMap实现
+key为对象
+value是new Object()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -676,14 +682,16 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>

--- a/jdk数据结构分析.xlsx
+++ b/jdk数据结构分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\java_web\java-basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C040745-DC7F-4487-909D-481540080317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8624954-C4FE-4748-8D0A-E33D36213D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="876" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,19 @@
     <t>基于HashMap实现
 key为对象
 value是new Object()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承自HashSet
+HashSet提供了包访问权限的构造方法给LinkedHashSet使用,这个构造方法内部基于LinkedHashMap来实现,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -224,6 +237,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -658,7 +674,9 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -694,7 +712,9 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -710,7 +730,9 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -718,15 +740,19 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>

--- a/jdk数据结构分析.xlsx
+++ b/jdk数据结构分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\java_web\java-basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8624954-C4FE-4748-8D0A-E33D36213D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B394ED9-E135-4C73-BE4D-7A8758A8BE8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,22 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,10 +252,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -562,8 +578,8 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -588,8 +604,8 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -612,8 +628,8 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:12" ht="34.799999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -636,8 +652,8 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:12" ht="88.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -665,7 +681,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -685,7 +701,7 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
@@ -701,7 +717,7 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -723,7 +739,7 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
@@ -741,11 +757,11 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="1"/>
@@ -761,7 +777,7 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -775,7 +791,7 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -789,16 +805,20 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -807,14 +827,18 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -823,14 +847,18 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
